--- a/biology/Botanique/Arabis_hirsuta/Arabis_hirsuta.xlsx
+++ b/biology/Botanique/Arabis_hirsuta/Arabis_hirsuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arabette hérissée
 L’Arabette hérissée ou Arabette hirsute (Arabis hirsuta) est une espèce de plantes herbacées appartenant à la famille des Brassicacées. C'est une plante bisannuelle ou vivace à petites fleurs blanches.
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>subsp. sagittata
 subsp. hirsuta</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur de 10 à 80 cm. Feuilles basales pubescentes en rosette. Corolle large de 3 à 5 mm, comportant 4 pétales blancs. Inflorescence dense. Siliques allongées, dressées et serrées.
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte. Floraison de fin avril à juin.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses sèches, rochers ou vieux murs, coupes forestières, accotements de chemins et déblais. Généralement sur sols calcaires.
 </t>
@@ -636,7 +656,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Asie occidentale, Afrique du Nord.
 </t>
